--- a/va_facility_data_2025-02-20/Fredericksburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fredericksburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fredericksburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fredericksburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbc47ecd264414ef7b6089e4fa91ace2d"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R1347c2989c2743dcb1633bd6e520cb5c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2e484529bfc540f0841ace11c1260586"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R4383d77a3fef40fd927c176b9fb3b0aa"/>
   </x:sheets>
 </x:workbook>
 </file>
